--- a/EffortEstimation/Testing/TestReport.xlsx
+++ b/EffortEstimation/Testing/TestReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\project-proposal-allround-manager-prototype-name\EffortEstimation\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F24DAC3-0A97-49E2-B43F-C1A0D3ECD483}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F574E37-769E-48B1-83C5-B3EEF9F881AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10935" windowHeight="5775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,34 +379,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,10 +522,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -534,7 +534,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7</c:v>
@@ -665,34 +665,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-15</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-12</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2023,9 +2023,9 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2064,17 +2064,17 @@
         <v>42111</v>
       </c>
       <c r="B3" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4">
         <f>E3-C3-B3</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:256" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2086,15 +2086,15 @@
         <v>12</v>
       </c>
       <c r="C4" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" ref="D4:D12" si="1">E4-C4-B4</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4:E12" si="2">E3+3</f>
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:256" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2103,18 +2103,18 @@
         <v>42125</v>
       </c>
       <c r="B5" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6">
         <v>5</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:256" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2123,18 +2123,18 @@
         <v>42132</v>
       </c>
       <c r="B6" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6">
         <v>8</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:256" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2143,18 +2143,18 @@
         <v>42139</v>
       </c>
       <c r="B7" s="6">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" s="6">
         <f>E7-C7-B7</f>
-        <v>-3</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6">
         <f>E6+3</f>
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2163,18 +2163,18 @@
         <v>42146</v>
       </c>
       <c r="B8" s="6">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6">
         <v>7</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>20</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:256" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2183,18 +2183,18 @@
         <v>42153</v>
       </c>
       <c r="B9" s="6">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6">
         <v>15</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="1"/>
-        <v>-18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2203,18 +2203,18 @@
         <v>42160</v>
       </c>
       <c r="B10" s="6">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C10" s="6">
         <v>12</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>21</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:256" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2223,18 +2223,18 @@
         <v>42167</v>
       </c>
       <c r="B11" s="6">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6">
         <v>7</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="1"/>
-        <v>-12</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:256" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2243,18 +2243,18 @@
         <v>42174</v>
       </c>
       <c r="B12" s="6">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="1"/>
-        <v>-9</v>
+        <v>38</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:256" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
